--- a/开发设计文档/08.计划书/01组项目计划.xlsx
+++ b/开发设计文档/08.计划书/01组项目计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qt\final_system\开发设计文档\08.计划书\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E26C21A-07FC-443F-9A1F-0D25175BA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB48AA13-A060-42B0-AA12-7A2F7FE365C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,11 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.负责项目调试和功能测试；
-2.记录会议日志。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>各负责人整理好所有文档上传至gitee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -144,6 +139,12 @@
   </si>
   <si>
     <t>确认ui中所有功能的跳转逻辑正确，检查代码逻辑是否存在漏洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.负责项目调试和功能测试；
+2.记录会议日志；
+3.完成数据库设计表格的拓展补充。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -274,15 +275,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -297,21 +313,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -594,7 +595,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:I22"/>
+      <selection activeCell="C15" sqref="C15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -603,198 +604,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45834</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>24</v>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -807,9 +808,9 @@
       <c r="A16" s="1">
         <v>45835</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="15" t="s">
-        <v>23</v>
+      <c r="B16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -822,11 +823,11 @@
       <c r="A17" s="1">
         <v>45836</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>25</v>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -834,13 +835,13 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="M17" s="11"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45837</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -848,13 +849,13 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45838</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -867,9 +868,9 @@
       <c r="A20" s="1">
         <v>45839</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="15" t="s">
-        <v>26</v>
+      <c r="B20" s="12"/>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -882,11 +883,11 @@
       <c r="A21" s="1">
         <v>45840</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>27</v>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -899,7 +900,7 @@
       <c r="A22" s="1">
         <v>45841</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
@@ -914,10 +915,10 @@
       <c r="A23" s="1">
         <v>45842</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="5"/>
@@ -931,9 +932,9 @@
       <c r="A24" s="1">
         <v>45843</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -946,8 +947,8 @@
       <c r="A25" s="1">
         <v>45844</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="5"/>
@@ -960,6 +961,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="C17:I19"/>
     <mergeCell ref="C11:D12"/>
@@ -974,21 +988,8 @@
     <mergeCell ref="E7:I8"/>
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="E9:I10"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发设计文档/08.计划书/01组项目计划.xlsx
+++ b/开发设计文档/08.计划书/01组项目计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qt\final_system\开发设计文档\08.计划书\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB48AA13-A060-42B0-AA12-7A2F7FE365C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E26C21A-07FC-443F-9A1F-0D25175BA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,6 +115,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1.负责项目调试和功能测试；
+2.记录会议日志。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>各负责人整理好所有文档上传至gitee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,12 +144,6 @@
   </si>
   <si>
     <t>确认ui中所有功能的跳转逻辑正确，检查代码逻辑是否存在漏洞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.负责项目调试和功能测试；
-2.记录会议日志；
-3.完成数据库设计表格的拓展补充。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -275,19 +274,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -296,23 +310,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -595,7 +594,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:I15"/>
+      <selection activeCell="C22" sqref="C22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -604,198 +603,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45834</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
+      <c r="C15" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -808,9 +807,9 @@
       <c r="A16" s="1">
         <v>45835</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
+      <c r="B16" s="7"/>
+      <c r="C16" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -823,11 +822,11 @@
       <c r="A17" s="1">
         <v>45836</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
+      <c r="C17" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -835,13 +834,13 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45837</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -849,13 +848,13 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45838</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -868,9 +867,9 @@
       <c r="A20" s="1">
         <v>45839</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
+      <c r="B20" s="7"/>
+      <c r="C20" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -883,11 +882,11 @@
       <c r="A21" s="1">
         <v>45840</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
+      <c r="C21" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -900,7 +899,7 @@
       <c r="A22" s="1">
         <v>45841</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
@@ -915,10 +914,10 @@
       <c r="A23" s="1">
         <v>45842</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="5"/>
@@ -932,9 +931,9 @@
       <c r="A24" s="1">
         <v>45843</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -947,8 +946,8 @@
       <c r="A25" s="1">
         <v>45844</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="5"/>
@@ -961,19 +960,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="C17:I19"/>
     <mergeCell ref="C11:D12"/>
@@ -988,8 +974,21 @@
     <mergeCell ref="E7:I8"/>
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="E9:I10"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
